--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ccl28</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ccl28</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,356 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08341966666666667</v>
+        <v>0.1197343333333333</v>
       </c>
       <c r="H2">
-        <v>0.250259</v>
+        <v>0.359203</v>
       </c>
       <c r="I2">
-        <v>0.3202794553717348</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3456272304411717</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N2">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O2">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04760087458022223</v>
+        <v>0.01739470461083333</v>
       </c>
       <c r="R2">
-        <v>0.428407871222</v>
+        <v>0.104368227665</v>
       </c>
       <c r="S2">
-        <v>0.07825318901957065</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1128797066838734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.08341966666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.250259</v>
-      </c>
-      <c r="I3">
-        <v>0.3202794553717348</v>
-      </c>
-      <c r="J3">
-        <v>0.3456272304411717</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.7648465</v>
-      </c>
-      <c r="N3">
-        <v>3.529693</v>
-      </c>
-      <c r="O3">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P3">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q3">
-        <v>0.1472229067478333</v>
-      </c>
-      <c r="R3">
-        <v>0.883337440487</v>
-      </c>
-      <c r="S3">
-        <v>0.2420262663521642</v>
-      </c>
-      <c r="T3">
-        <v>0.2327475237572983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1197343333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.359203</v>
-      </c>
-      <c r="I4">
-        <v>0.4597051103372636</v>
-      </c>
-      <c r="J4">
-        <v>0.4960874056723641</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.5706193333333334</v>
-      </c>
-      <c r="N4">
-        <v>1.711858</v>
-      </c>
-      <c r="O4">
-        <v>0.2443278446591134</v>
-      </c>
-      <c r="P4">
-        <v>0.3265937887468804</v>
-      </c>
-      <c r="Q4">
-        <v>0.06832272546377778</v>
-      </c>
-      <c r="R4">
-        <v>0.6149045291740001</v>
-      </c>
-      <c r="S4">
-        <v>0.1123187587874835</v>
-      </c>
-      <c r="T4">
-        <v>0.1620190653681481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1197343333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.359203</v>
-      </c>
-      <c r="I5">
-        <v>0.4597051103372636</v>
-      </c>
-      <c r="J5">
-        <v>0.4960874056723641</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.7648465</v>
-      </c>
-      <c r="N5">
-        <v>3.529693</v>
-      </c>
-      <c r="O5">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P5">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q5">
-        <v>0.2113127191131667</v>
-      </c>
-      <c r="R5">
-        <v>1.267876314679</v>
-      </c>
-      <c r="S5">
-        <v>0.3473863515497801</v>
-      </c>
-      <c r="T5">
-        <v>0.334068340304216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.05730499999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.11461</v>
-      </c>
-      <c r="I6">
-        <v>0.2200154342910016</v>
-      </c>
-      <c r="J6">
-        <v>0.1582853638864643</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.5706193333333334</v>
-      </c>
-      <c r="N6">
-        <v>1.711858</v>
-      </c>
-      <c r="O6">
-        <v>0.2443278446591134</v>
-      </c>
-      <c r="P6">
-        <v>0.3265937887468804</v>
-      </c>
-      <c r="Q6">
-        <v>0.03269934089666666</v>
-      </c>
-      <c r="R6">
-        <v>0.19619604538</v>
-      </c>
-      <c r="S6">
-        <v>0.05375589685205921</v>
-      </c>
-      <c r="T6">
-        <v>0.05169501669485903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.05730499999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.11461</v>
-      </c>
-      <c r="I7">
-        <v>0.2200154342910016</v>
-      </c>
-      <c r="J7">
-        <v>0.1582853638864643</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.7648465</v>
-      </c>
-      <c r="N7">
-        <v>3.529693</v>
-      </c>
-      <c r="O7">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P7">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q7">
-        <v>0.1011345286825</v>
-      </c>
-      <c r="R7">
-        <v>0.40453811473</v>
-      </c>
-      <c r="S7">
-        <v>0.1662595374389425</v>
-      </c>
-      <c r="T7">
-        <v>0.1065903471916053</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
